--- a/Definicion y administracion de requerimientos de software/PDMaestroDocumentosDefRequerimientos.xlsx
+++ b/Definicion y administracion de requerimientos de software/PDMaestroDocumentosDefRequerimientos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\METFOR\METFOR\Definicion y administracion de requerimientos de software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD5379F-9BD6-294D-A8B5-4A9264AF1B40}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="145">
   <si>
     <t>METFOR</t>
   </si>
@@ -458,13 +457,19 @@
   </si>
   <si>
     <t>PD CU</t>
+  </si>
+  <si>
+    <t>Iniciar sesión</t>
+  </si>
+  <si>
+    <t>Registrar usuario.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1158,43 +1163,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B82D4-C3C9-463B-A7F7-479A47609B7D}">
   <dimension ref="B2:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" zoomScale="82" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="B72" zoomScale="82" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82:E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="2"/>
-    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="2"/>
+    <col min="2" max="2" width="10.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="26" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="57" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="18.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5" style="2"/>
+    <col min="6" max="6" width="8.77734375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="18.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="37.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16">
+    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:10" ht="4.5" customHeight="1">
+    <row r="3" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:10" ht="16">
+    <row r="4" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="6" spans="2:10" ht="16">
+    <row r="5" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1205,15 +1210,15 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="8" spans="2:10" ht="16">
+    <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1"/>
-    <row r="10" spans="2:10">
+    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="6"/>
@@ -1223,7 +1228,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="2:10" ht="9.75" customHeight="1">
+    <row r="11" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -1233,12 +1238,12 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="2:10" ht="16" thickBot="1"/>
-    <row r="14" spans="2:10" ht="18" customHeight="1">
+    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
         <v>34</v>
       </c>
@@ -1261,7 +1266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="27"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -1270,7 +1275,7 @@
       <c r="G15" s="31"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>35</v>
       </c>
@@ -1293,7 +1298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>35</v>
       </c>
@@ -1316,7 +1321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>35</v>
       </c>
@@ -1339,7 +1344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
@@ -1362,7 +1367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>35</v>
       </c>
@@ -1385,7 +1390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>35</v>
       </c>
@@ -1408,7 +1413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>35</v>
       </c>
@@ -1431,7 +1436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>35</v>
       </c>
@@ -1454,7 +1459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>35</v>
       </c>
@@ -1477,7 +1482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1500,7 +1505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>35</v>
       </c>
@@ -1523,7 +1528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="19" t="s">
         <v>35</v>
       </c>
@@ -1546,7 +1551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="19" t="s">
         <v>35</v>
       </c>
@@ -1569,7 +1574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="19" t="s">
         <v>35</v>
       </c>
@@ -1592,7 +1597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="19" t="s">
         <v>35</v>
       </c>
@@ -1615,7 +1620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
         <v>64</v>
       </c>
@@ -1638,7 +1643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="19" t="s">
         <v>64</v>
       </c>
@@ -1661,7 +1666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="19" t="s">
         <v>64</v>
       </c>
@@ -1684,7 +1689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="19" t="s">
         <v>64</v>
       </c>
@@ -1707,7 +1712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="19" t="s">
         <v>64</v>
       </c>
@@ -1730,7 +1735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="19" t="s">
         <v>64</v>
       </c>
@@ -1753,7 +1758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="19" t="s">
         <v>64</v>
       </c>
@@ -1776,7 +1781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="19" t="s">
         <v>64</v>
       </c>
@@ -1799,7 +1804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="19" t="s">
         <v>64</v>
       </c>
@@ -1822,7 +1827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="19" t="s">
         <v>64</v>
       </c>
@@ -1845,7 +1850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="19" t="s">
         <v>64</v>
       </c>
@@ -1868,7 +1873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="19" t="s">
         <v>64</v>
       </c>
@@ -1891,7 +1896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="19" t="s">
         <v>64</v>
       </c>
@@ -1914,7 +1919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="19" t="s">
         <v>64</v>
       </c>
@@ -1937,7 +1942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="19" t="s">
         <v>64</v>
       </c>
@@ -1960,7 +1965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>64</v>
       </c>
@@ -1983,7 +1988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
         <v>64</v>
       </c>
@@ -2006,7 +2011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>64</v>
       </c>
@@ -2029,7 +2034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>64</v>
       </c>
@@ -2052,7 +2057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>64</v>
       </c>
@@ -2075,7 +2080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>64</v>
       </c>
@@ -2098,7 +2103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="24">
+    <row r="52" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>98</v>
       </c>
@@ -2121,7 +2126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="24">
+    <row r="53" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>98</v>
       </c>
@@ -2144,7 +2149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="24">
+    <row r="54" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>98</v>
       </c>
@@ -2167,7 +2172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="24">
+    <row r="55" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>98</v>
       </c>
@@ -2190,7 +2195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="24">
+    <row r="56" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>98</v>
       </c>
@@ -2213,7 +2218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="24">
+    <row r="57" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>98</v>
       </c>
@@ -2236,7 +2241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="24">
+    <row r="58" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>98</v>
       </c>
@@ -2259,7 +2264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="25" thickBot="1">
+    <row r="59" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="12" t="s">
         <v>98</v>
       </c>
@@ -2282,7 +2287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="25" thickBot="1">
+    <row r="60" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="12" t="s">
         <v>98</v>
       </c>
@@ -2305,7 +2310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="25" thickBot="1">
+    <row r="61" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="12" t="s">
         <v>98</v>
       </c>
@@ -2328,7 +2333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="25" thickBot="1">
+    <row r="62" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="12" t="s">
         <v>98</v>
       </c>
@@ -2351,7 +2356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="25" thickBot="1">
+    <row r="63" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="12" t="s">
         <v>98</v>
       </c>
@@ -2374,7 +2379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="25" thickBot="1">
+    <row r="64" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="12" t="s">
         <v>98</v>
       </c>
@@ -2397,7 +2402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="25" thickBot="1">
+    <row r="65" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="12" t="s">
         <v>98</v>
       </c>
@@ -2420,7 +2425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="25" thickBot="1">
+    <row r="66" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="12" t="s">
         <v>98</v>
       </c>
@@ -2443,7 +2448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="25" thickBot="1">
+    <row r="67" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="12" t="s">
         <v>98</v>
       </c>
@@ -2466,7 +2471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="25" thickBot="1">
+    <row r="68" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="12" t="s">
         <v>98</v>
       </c>
@@ -2489,7 +2494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="25" thickBot="1">
+    <row r="69" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="12" t="s">
         <v>98</v>
       </c>
@@ -2512,7 +2517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="25" thickBot="1">
+    <row r="70" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="12" t="s">
         <v>98</v>
       </c>
@@ -2535,7 +2540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="25" thickBot="1">
+    <row r="71" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="12" t="s">
         <v>98</v>
       </c>
@@ -2558,7 +2563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="25" thickBot="1">
+    <row r="72" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="12" t="s">
         <v>98</v>
       </c>
@@ -2581,7 +2586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="25" thickBot="1">
+    <row r="73" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="12" t="s">
         <v>98</v>
       </c>
@@ -2604,7 +2609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="25" thickBot="1">
+    <row r="74" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="12" t="s">
         <v>98</v>
       </c>
@@ -2627,7 +2632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="25" thickBot="1">
+    <row r="75" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="12" t="s">
         <v>98</v>
       </c>
@@ -2650,7 +2655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="25" thickBot="1">
+    <row r="76" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="12" t="s">
         <v>98</v>
       </c>
@@ -2673,7 +2678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="25" thickBot="1">
+    <row r="77" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="12" t="s">
         <v>98</v>
       </c>
@@ -2696,7 +2701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="25" thickBot="1">
+    <row r="78" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B78" s="12" t="s">
         <v>98</v>
       </c>
@@ -2719,7 +2724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="25" thickBot="1">
+    <row r="79" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="12" t="s">
         <v>98</v>
       </c>
@@ -2742,7 +2747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="25" thickBot="1">
+    <row r="80" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="12" t="s">
         <v>98</v>
       </c>
@@ -2765,7 +2770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="25" thickBot="1">
+    <row r="81" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B81" s="12" t="s">
         <v>98</v>
       </c>
@@ -2788,7 +2793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="25" thickBot="1">
+    <row r="82" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="12" t="s">
         <v>98</v>
       </c>
@@ -2811,14 +2816,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="25" thickBot="1">
+    <row r="83" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
+      <c r="C83" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F83" s="13">
+        <v>1</v>
+      </c>
       <c r="G83" s="14" t="s">
         <v>23</v>
       </c>
@@ -2826,14 +2839,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="25" thickBot="1">
+    <row r="84" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B84" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
+      <c r="C84" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F84" s="13">
+        <v>1</v>
+      </c>
       <c r="G84" s="14" t="s">
         <v>23</v>
       </c>
@@ -2841,7 +2862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="25" thickBot="1">
+    <row r="85" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B85" s="12" t="s">
         <v>98</v>
       </c>
@@ -2856,7 +2877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="25" thickBot="1">
+    <row r="86" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="12" t="s">
         <v>98</v>
       </c>
@@ -2871,7 +2892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="25" thickBot="1">
+    <row r="87" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B87" s="12" t="s">
         <v>98</v>
       </c>
@@ -2886,7 +2907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="25" thickBot="1">
+    <row r="88" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B88" s="12" t="s">
         <v>98</v>
       </c>
@@ -2901,7 +2922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="25" thickBot="1">
+    <row r="89" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B89" s="12" t="s">
         <v>98</v>
       </c>
@@ -2916,7 +2937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="25" thickBot="1">
+    <row r="90" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B90" s="12" t="s">
         <v>98</v>
       </c>
@@ -2931,7 +2952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="25" thickBot="1">
+    <row r="91" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="12" t="s">
         <v>98</v>
       </c>
@@ -2946,7 +2967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="25" thickBot="1">
+    <row r="92" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B92" s="12" t="s">
         <v>98</v>
       </c>
@@ -2961,7 +2982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="25" thickBot="1">
+    <row r="93" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B93" s="12" t="s">
         <v>98</v>
       </c>
@@ -2976,7 +2997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="25" thickBot="1">
+    <row r="94" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B94" s="12" t="s">
         <v>98</v>
       </c>
@@ -2991,7 +3012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="25" thickBot="1">
+    <row r="95" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="12" t="s">
         <v>98</v>
       </c>
@@ -3006,7 +3027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="25" thickBot="1">
+    <row r="96" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B96" s="12" t="s">
         <v>98</v>
       </c>
@@ -3021,7 +3042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="2:8" ht="25" thickBot="1">
+    <row r="97" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B97" s="12" t="s">
         <v>98</v>
       </c>
@@ -3036,7 +3057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="25" thickBot="1">
+    <row r="98" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B98" s="12" t="s">
         <v>98</v>
       </c>
@@ -3076,15 +3097,15 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5" customWidth="1"/>
+    <col min="6" max="7" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="32" t="s">
         <v>17</v>
       </c>
@@ -3094,7 +3115,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -3102,7 +3123,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -3110,7 +3131,7 @@
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -3118,7 +3139,7 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -3126,7 +3147,7 @@
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -3134,7 +3155,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
         <v>16</v>
       </c>
@@ -3144,7 +3165,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -3152,7 +3173,7 @@
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -3160,7 +3181,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -3168,7 +3189,7 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -3176,7 +3197,7 @@
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
@@ -3184,7 +3205,7 @@
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="32" t="s">
         <v>15</v>
       </c>
@@ -3194,7 +3215,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
@@ -3202,7 +3223,7 @@
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
@@ -3210,7 +3231,7 @@
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -3218,7 +3239,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -3226,7 +3247,7 @@
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -3234,7 +3255,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="32" t="s">
         <v>9</v>
       </c>
@@ -3244,7 +3265,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>3</v>
       </c>
@@ -3264,7 +3285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3272,7 +3293,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -3280,7 +3301,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -3288,7 +3309,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -3296,7 +3317,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -3304,7 +3325,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -3312,7 +3333,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -3320,7 +3341,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -3328,7 +3349,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -3336,7 +3357,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -3344,7 +3365,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -3352,7 +3373,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -3360,7 +3381,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -3368,7 +3389,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="32" t="s">
         <v>10</v>
       </c>
@@ -3378,7 +3399,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -3386,7 +3407,7 @@
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -3394,7 +3415,7 @@
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
@@ -3402,7 +3423,7 @@
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
@@ -3410,7 +3431,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
@@ -3418,7 +3439,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
@@ -3426,7 +3447,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="32" t="s">
         <v>11</v>
       </c>
@@ -3436,7 +3457,7 @@
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
@@ -3444,7 +3465,7 @@
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
@@ -3452,7 +3473,7 @@
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -3460,7 +3481,7 @@
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
@@ -3468,7 +3489,7 @@
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -3476,7 +3497,7 @@
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="32" t="s">
         <v>14</v>
       </c>
@@ -3486,7 +3507,7 @@
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="33" t="s">
         <v>12</v>
       </c>
@@ -3500,7 +3521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -3508,7 +3529,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -3516,7 +3537,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -3524,7 +3545,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -3532,7 +3553,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -3540,7 +3561,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>

--- a/Definicion y administracion de requerimientos de software/PDMaestroDocumentosDefRequerimientos.xlsx
+++ b/Definicion y administracion de requerimientos de software/PDMaestroDocumentosDefRequerimientos.xlsx
@@ -469,7 +469,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +510,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -709,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -791,6 +798,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1164,7 +1174,7 @@
   <dimension ref="B2:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B72" zoomScale="82" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82:E84"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2913,7 +2923,7 @@
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="21"/>
-      <c r="E88" s="16"/>
+      <c r="E88" s="34"/>
       <c r="F88" s="16"/>
       <c r="G88" s="14" t="s">
         <v>23</v>
@@ -3084,7 +3094,7 @@
     <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/Definicion y administracion de requerimientos de software/PDMaestroDocumentosDefRequerimientos.xlsx
+++ b/Definicion y administracion de requerimientos de software/PDMaestroDocumentosDefRequerimientos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\METFOR\METFOR\Definicion y administracion de requerimientos de software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/METFOR/METFOR/Definicion y administracion de requerimientos de software/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35979B9B-C927-2940-AA7F-1D0574BB2E9A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
+    <workbookView xWindow="14440" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -763,6 +764,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -798,9 +802,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,43 +1174,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B82D4-C3C9-463B-A7F7-479A47609B7D}">
   <dimension ref="B2:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B72" zoomScale="82" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="D68" zoomScale="133" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="2"/>
-    <col min="2" max="2" width="10.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="2"/>
+    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="26" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="57" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="18.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="37.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="2"/>
+    <col min="6" max="6" width="8.83203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="18.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1220,15 +1221,15 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="6"/>
@@ -1238,7 +1239,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -1248,44 +1249,44 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+    <row r="13" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="28"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
         <v>35</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>77</v>
       </c>
       <c r="F16" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>23</v>
@@ -1308,7 +1309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
         <v>35</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>78</v>
       </c>
       <c r="F17" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>23</v>
@@ -1331,7 +1332,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
         <v>35</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="12" t="s">
         <v>35</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="12" t="s">
         <v>35</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
         <v>35</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>83</v>
       </c>
       <c r="F22" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>23</v>
@@ -1446,7 +1447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
         <v>35</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>45</v>
       </c>
       <c r="F23" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>23</v>
@@ -1469,7 +1470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
         <v>35</v>
       </c>
@@ -1483,7 +1484,7 @@
         <v>49</v>
       </c>
       <c r="F24" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>23</v>
@@ -1492,7 +1493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>23</v>
@@ -1515,7 +1516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
         <v>35</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>53</v>
       </c>
       <c r="F26" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>23</v>
@@ -1538,7 +1539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="19" t="s">
         <v>35</v>
       </c>
@@ -1552,7 +1553,7 @@
         <v>44</v>
       </c>
       <c r="F27" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>23</v>
@@ -1561,7 +1562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="19" t="s">
         <v>35</v>
       </c>
@@ -1575,7 +1576,7 @@
         <v>61</v>
       </c>
       <c r="F28" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>23</v>
@@ -1584,7 +1585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">
         <v>35</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="19" t="s">
         <v>35</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>63</v>
       </c>
       <c r="F30" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>23</v>
@@ -1630,7 +1631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="19" t="s">
         <v>64</v>
       </c>
@@ -1653,7 +1654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="19" t="s">
         <v>64</v>
       </c>
@@ -1667,7 +1668,7 @@
         <v>78</v>
       </c>
       <c r="F32" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>23</v>
@@ -1676,7 +1677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="19" t="s">
         <v>64</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>79</v>
       </c>
       <c r="F33" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>23</v>
@@ -1699,7 +1700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="19" t="s">
         <v>64</v>
       </c>
@@ -1722,7 +1723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="19" t="s">
         <v>64</v>
       </c>
@@ -1736,7 +1737,7 @@
         <v>81</v>
       </c>
       <c r="F35" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>23</v>
@@ -1745,7 +1746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="19" t="s">
         <v>64</v>
       </c>
@@ -1768,7 +1769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="19" t="s">
         <v>64</v>
       </c>
@@ -1791,7 +1792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="19" t="s">
         <v>64</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="19" t="s">
         <v>64</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="19" t="s">
         <v>64</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="19" t="s">
         <v>64</v>
       </c>
@@ -1883,7 +1884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="19" t="s">
         <v>64</v>
       </c>
@@ -1906,7 +1907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="19" t="s">
         <v>64</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="19" t="s">
         <v>64</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="19" t="s">
         <v>64</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="12" t="s">
         <v>64</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="12" t="s">
         <v>64</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="12" t="s">
         <v>64</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="12" t="s">
         <v>64</v>
       </c>
@@ -2058,7 +2059,7 @@
         <v>93</v>
       </c>
       <c r="F49" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>23</v>
@@ -2067,7 +2068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="12" t="s">
         <v>64</v>
       </c>
@@ -2090,7 +2091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="12" t="s">
         <v>64</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B52" s="12" t="s">
         <v>98</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>63</v>
       </c>
       <c r="F52" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>23</v>
@@ -2136,7 +2137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B53" s="12" t="s">
         <v>98</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B54" s="12" t="s">
         <v>98</v>
       </c>
@@ -2182,7 +2183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B55" s="12" t="s">
         <v>98</v>
       </c>
@@ -2196,7 +2197,7 @@
         <v>132</v>
       </c>
       <c r="F55" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>23</v>
@@ -2205,7 +2206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B56" s="12" t="s">
         <v>98</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B57" s="12" t="s">
         <v>98</v>
       </c>
@@ -2251,7 +2252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B58" s="12" t="s">
         <v>98</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>98</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>98</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>98</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>98</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>98</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>98</v>
       </c>
@@ -2412,7 +2413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>98</v>
       </c>
@@ -2435,7 +2436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>98</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>98</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>98</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>98</v>
       </c>
@@ -2527,7 +2528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>98</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>98</v>
       </c>
@@ -2573,7 +2574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>98</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>142</v>
       </c>
       <c r="F72" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" s="14" t="s">
         <v>23</v>
@@ -2596,7 +2597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>98</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>142</v>
       </c>
       <c r="F73" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" s="14" t="s">
         <v>23</v>
@@ -2619,7 +2620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>98</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>142</v>
       </c>
       <c r="F74" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>23</v>
@@ -2642,7 +2643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
         <v>98</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>142</v>
       </c>
       <c r="F75" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>23</v>
@@ -2665,7 +2666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>98</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>142</v>
       </c>
       <c r="F76" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>23</v>
@@ -2688,7 +2689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
         <v>98</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>142</v>
       </c>
       <c r="F77" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>23</v>
@@ -2711,7 +2712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>98</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>142</v>
       </c>
       <c r="F78" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" s="14" t="s">
         <v>23</v>
@@ -2734,7 +2735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>98</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>142</v>
       </c>
       <c r="F79" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" s="14" t="s">
         <v>23</v>
@@ -2757,7 +2758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>98</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>142</v>
       </c>
       <c r="F80" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>23</v>
@@ -2780,7 +2781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>98</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>142</v>
       </c>
       <c r="F81" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>23</v>
@@ -2803,7 +2804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>98</v>
       </c>
@@ -2817,7 +2818,7 @@
         <v>142</v>
       </c>
       <c r="F82" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82" s="14" t="s">
         <v>23</v>
@@ -2826,7 +2827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>98</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>142</v>
       </c>
       <c r="F83" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" s="14" t="s">
         <v>23</v>
@@ -2849,7 +2850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>98</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>142</v>
       </c>
       <c r="F84" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G84" s="14" t="s">
         <v>23</v>
@@ -2872,7 +2873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>98</v>
       </c>
@@ -2887,7 +2888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>98</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>98</v>
       </c>
@@ -2917,13 +2918,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>98</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="21"/>
-      <c r="E88" s="34"/>
+      <c r="E88" s="22"/>
       <c r="F88" s="16"/>
       <c r="G88" s="14" t="s">
         <v>23</v>
@@ -2932,7 +2933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
         <v>98</v>
       </c>
@@ -2947,7 +2948,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>98</v>
       </c>
@@ -2962,7 +2963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
         <v>98</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>98</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
         <v>98</v>
       </c>
@@ -3007,7 +3008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>98</v>
       </c>
@@ -3022,7 +3023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
         <v>98</v>
       </c>
@@ -3037,7 +3038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>98</v>
       </c>
@@ -3052,7 +3053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
         <v>98</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>98</v>
       </c>
@@ -3107,175 +3108,175 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.44140625" customWidth="1"/>
+    <col min="6" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="32" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>3</v>
       </c>
@@ -3295,7 +3296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3303,7 +3304,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -3311,7 +3312,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -3319,7 +3320,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -3327,7 +3328,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -3335,7 +3336,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -3343,7 +3344,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -3351,7 +3352,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -3359,7 +3360,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -3367,7 +3368,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -3375,7 +3376,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -3383,7 +3384,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -3391,7 +3392,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -3399,139 +3400,139 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="32" t="s">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="32" t="s">
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="32" t="s">
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="33" t="s">
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33" t="s">
+      <c r="C49" s="34"/>
+      <c r="D49" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
       <c r="G49" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -3539,7 +3540,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -3547,7 +3548,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -3555,7 +3556,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -3563,7 +3564,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -3571,7 +3572,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>

--- a/Definicion y administracion de requerimientos de software/PDMaestroDocumentosDefRequerimientos.xlsx
+++ b/Definicion y administracion de requerimientos de software/PDMaestroDocumentosDefRequerimientos.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/METFOR/METFOR/Definicion y administracion de requerimientos de software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/Desk/METFOR/METFOR/Definicion y administracion de requerimientos de software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35979B9B-C927-2940-AA7F-1D0574BB2E9A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081917EB-912C-A640-BAFE-B6214829751A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
+    <workbookView xWindow="14440" yWindow="460" windowWidth="14360" windowHeight="16140" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="5" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitacora!$B$14:$H$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitacora!$B$14:$H$61</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="151">
   <si>
     <t>METFOR</t>
   </si>
@@ -298,24 +298,12 @@
     <t>PLPresentacion</t>
   </si>
   <si>
-    <t>Control de Asignaciones Estrategia</t>
-  </si>
-  <si>
     <t>Documento de Estrategia</t>
   </si>
   <si>
-    <t>PDDocumentoEstrategia</t>
-  </si>
-  <si>
     <t>Administracion de Configuracion</t>
   </si>
   <si>
-    <t>PDAdministracionConfiguracion</t>
-  </si>
-  <si>
-    <t>Acta de reunion Estrategia</t>
-  </si>
-  <si>
     <t>PDActaReunion</t>
   </si>
   <si>
@@ -464,6 +452,36 @@
   </si>
   <si>
     <t>Registrar usuario.</t>
+  </si>
+  <si>
+    <t>PD Script Estrategia</t>
+  </si>
+  <si>
+    <t>PD Plan de Riesgo</t>
+  </si>
+  <si>
+    <t>PD Presentacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plan de Riesgo</t>
+  </si>
+  <si>
+    <t>Presentacion de Estrategia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acta de reunion Estrategia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Control de Asignaciones Estrategia</t>
+  </si>
+  <si>
+    <t>PD Control de asignaciones</t>
+  </si>
+  <si>
+    <t>PD DocumentoEstrategia</t>
+  </si>
+  <si>
+    <t>PDAdministraciónConfiguración</t>
   </si>
 </sst>
 </file>
@@ -1172,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B82D4-C3C9-463B-A7F7-479A47609B7D}">
-  <dimension ref="B2:J98"/>
+  <dimension ref="B2:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D68" zoomScale="133" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="E44" zoomScale="133" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2007,10 +2025,10 @@
         <v>54</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="F47" s="13">
         <v>1</v>
@@ -2030,10 +2048,10 @@
         <v>33</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="F48" s="13">
         <v>1</v>
@@ -2053,10 +2071,10 @@
         <v>33</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="F49" s="13">
         <v>3</v>
@@ -2073,13 +2091,13 @@
         <v>64</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F50" s="13">
         <v>1</v>
@@ -2096,59 +2114,51 @@
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F51" s="13">
+        <v>2</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="13">
+        <v>1</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="13">
-        <v>1</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="B52" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F52" s="13">
-        <v>2</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="B53" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="D53" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>131</v>
+        <v>93</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="F53" s="13">
         <v>1</v>
@@ -2162,19 +2172,19 @@
     </row>
     <row r="54" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B54" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="F54" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>23</v>
@@ -2185,19 +2195,19 @@
     </row>
     <row r="55" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B55" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F55" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>23</v>
@@ -2208,16 +2218,16 @@
     </row>
     <row r="56" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B56" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="F56" s="13">
         <v>1</v>
@@ -2231,19 +2241,19 @@
     </row>
     <row r="57" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B57" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>105</v>
-      </c>
       <c r="E57" s="13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F57" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>23</v>
@@ -2254,16 +2264,16 @@
     </row>
     <row r="58" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B58" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F58" s="13">
         <v>1</v>
@@ -2275,18 +2285,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B59" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>135</v>
+        <v>99</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="F59" s="13">
         <v>1</v>
@@ -2298,18 +2308,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B60" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>136</v>
+        <v>99</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="F60" s="13">
         <v>1</v>
@@ -2323,16 +2333,16 @@
     </row>
     <row r="61" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="F61" s="13">
         <v>1</v>
@@ -2346,16 +2356,16 @@
     </row>
     <row r="62" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F62" s="13">
         <v>1</v>
@@ -2369,16 +2379,16 @@
     </row>
     <row r="63" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="F63" s="13">
         <v>1</v>
@@ -2392,16 +2402,16 @@
     </row>
     <row r="64" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F64" s="13">
         <v>1</v>
@@ -2415,16 +2425,16 @@
     </row>
     <row r="65" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F65" s="13">
         <v>1</v>
@@ -2438,16 +2448,16 @@
     </row>
     <row r="66" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F66" s="13">
         <v>1</v>
@@ -2461,16 +2471,16 @@
     </row>
     <row r="67" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="F67" s="13">
         <v>1</v>
@@ -2484,16 +2494,16 @@
     </row>
     <row r="68" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F68" s="13">
         <v>1</v>
@@ -2507,16 +2517,16 @@
     </row>
     <row r="69" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F69" s="13">
         <v>1</v>
@@ -2530,16 +2540,16 @@
     </row>
     <row r="70" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F70" s="13">
         <v>1</v>
@@ -2553,16 +2563,16 @@
     </row>
     <row r="71" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F71" s="13">
         <v>1</v>
@@ -2576,19 +2586,19 @@
     </row>
     <row r="72" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="F72" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" s="14" t="s">
         <v>23</v>
@@ -2599,19 +2609,19 @@
     </row>
     <row r="73" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="F73" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" s="14" t="s">
         <v>23</v>
@@ -2622,16 +2632,16 @@
     </row>
     <row r="74" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F74" s="13">
         <v>2</v>
@@ -2645,16 +2655,16 @@
     </row>
     <row r="75" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F75" s="13">
         <v>2</v>
@@ -2668,16 +2678,16 @@
     </row>
     <row r="76" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F76" s="13">
         <v>2</v>
@@ -2691,16 +2701,16 @@
     </row>
     <row r="77" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C77" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D77" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="E77" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F77" s="13">
         <v>2</v>
@@ -2714,16 +2724,16 @@
     </row>
     <row r="78" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F78" s="13">
         <v>2</v>
@@ -2737,16 +2747,16 @@
     </row>
     <row r="79" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F79" s="13">
         <v>2</v>
@@ -2760,16 +2770,16 @@
     </row>
     <row r="80" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F80" s="13">
         <v>2</v>
@@ -2783,16 +2793,16 @@
     </row>
     <row r="81" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F81" s="13">
         <v>2</v>
@@ -2806,16 +2816,16 @@
     </row>
     <row r="82" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F82" s="13">
         <v>2</v>
@@ -2829,16 +2839,16 @@
     </row>
     <row r="83" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F83" s="13">
         <v>2</v>
@@ -2852,16 +2862,16 @@
     </row>
     <row r="84" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F84" s="13">
         <v>2</v>
@@ -2875,12 +2885,20 @@
     </row>
     <row r="85" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
+        <v>94</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F85" s="13">
+        <v>2</v>
+      </c>
       <c r="G85" s="14" t="s">
         <v>23</v>
       </c>
@@ -2890,12 +2908,20 @@
     </row>
     <row r="86" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
+        <v>94</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F86" s="13">
+        <v>2</v>
+      </c>
       <c r="G86" s="14" t="s">
         <v>23</v>
       </c>
@@ -2905,7 +2931,7 @@
     </row>
     <row r="87" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="21"/>
@@ -2920,11 +2946,11 @@
     </row>
     <row r="88" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="21"/>
-      <c r="E88" s="22"/>
+      <c r="E88" s="16"/>
       <c r="F88" s="16"/>
       <c r="G88" s="14" t="s">
         <v>23</v>
@@ -2935,7 +2961,7 @@
     </row>
     <row r="89" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="21"/>
@@ -2950,11 +2976,11 @@
     </row>
     <row r="90" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="21"/>
-      <c r="E90" s="16"/>
+      <c r="E90" s="22"/>
       <c r="F90" s="16"/>
       <c r="G90" s="14" t="s">
         <v>23</v>
@@ -2965,7 +2991,7 @@
     </row>
     <row r="91" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="21"/>
@@ -2980,7 +3006,7 @@
     </row>
     <row r="92" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="21"/>
@@ -2995,7 +3021,7 @@
     </row>
     <row r="93" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="21"/>
@@ -3010,7 +3036,7 @@
     </row>
     <row r="94" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="21"/>
@@ -3025,7 +3051,7 @@
     </row>
     <row r="95" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="21"/>
@@ -3040,7 +3066,7 @@
     </row>
     <row r="96" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="21"/>
@@ -3055,7 +3081,7 @@
     </row>
     <row r="97" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="21"/>
@@ -3070,7 +3096,7 @@
     </row>
     <row r="98" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="21"/>
@@ -3083,8 +3109,38 @@
         <v>24</v>
       </c>
     </row>
+    <row r="99" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" s="13"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B14:H59" xr:uid="{F1589ACF-6535-FE46-990B-DE8C2392BE7C}"/>
+  <autoFilter ref="B14:H61" xr:uid="{F1589ACF-6535-FE46-990B-DE8C2392BE7C}"/>
   <mergeCells count="7">
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="C14:C15"/>

--- a/Definicion y administracion de requerimientos de software/PDMaestroDocumentosDefRequerimientos.xlsx
+++ b/Definicion y administracion de requerimientos de software/PDMaestroDocumentosDefRequerimientos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/Desk/METFOR/METFOR/Definicion y administracion de requerimientos de software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081917EB-912C-A640-BAFE-B6214829751A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBB96AC-5A56-674B-ADE2-A8C43D439601}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="460" windowWidth="14360" windowHeight="16140" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
+    <workbookView xWindow="14440" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B82D4-C3C9-463B-A7F7-479A47609B7D}">
   <dimension ref="B2:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E44" zoomScale="133" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="D26" zoomScale="133" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1594,7 +1594,7 @@
         <v>61</v>
       </c>
       <c r="F28" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>23</v>
@@ -1709,7 +1709,7 @@
         <v>79</v>
       </c>
       <c r="F33" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>23</v>
